--- a/crm/data/archival/FinalDisposition/relations/FinalDispositionR5Trd.xlsx
+++ b/crm/data/archival/FinalDisposition/relations/FinalDispositionR5Trd.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="51">
   <si>
     <t>From</t>
   </si>
@@ -169,12 +169,15 @@
   </si>
   <si>
     <t>ELIMINAR</t>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -674,7 +677,7 @@
     <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Buena" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
@@ -975,10 +978,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -986,10 +989,11 @@
     <col min="1" max="1" width="16.28515625" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="6" max="6" width="65.7109375" customWidth="1"/>
-    <col min="7" max="7" width="34.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" customWidth="1"/>
+    <col min="8" max="8" width="34.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1009,10 +1013,13 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1031,11 +1038,11 @@
       <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1054,11 +1061,11 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1077,11 +1084,11 @@
       <c r="F4" t="s">
         <v>12</v>
       </c>
-      <c r="G4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1100,11 +1107,11 @@
       <c r="F5" t="s">
         <v>13</v>
       </c>
-      <c r="G5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1123,11 +1130,11 @@
       <c r="F6" t="s">
         <v>14</v>
       </c>
-      <c r="G6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1146,11 +1153,11 @@
       <c r="F7" t="s">
         <v>15</v>
       </c>
-      <c r="G7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1169,11 +1176,11 @@
       <c r="F8" t="s">
         <v>16</v>
       </c>
-      <c r="G8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1192,11 +1199,11 @@
       <c r="F9" t="s">
         <v>17</v>
       </c>
-      <c r="G9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1215,11 +1222,11 @@
       <c r="F10" t="s">
         <v>18</v>
       </c>
-      <c r="G10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1238,11 +1245,11 @@
       <c r="F11" t="s">
         <v>19</v>
       </c>
-      <c r="G11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1261,11 +1268,11 @@
       <c r="F12" t="s">
         <v>20</v>
       </c>
-      <c r="G12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1284,11 +1291,11 @@
       <c r="F13" t="s">
         <v>21</v>
       </c>
-      <c r="G13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1307,11 +1314,11 @@
       <c r="F14" t="s">
         <v>22</v>
       </c>
-      <c r="G14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -1330,11 +1337,11 @@
       <c r="F15" t="s">
         <v>23</v>
       </c>
-      <c r="G15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1353,11 +1360,11 @@
       <c r="F16" t="s">
         <v>24</v>
       </c>
-      <c r="G16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1376,11 +1383,11 @@
       <c r="F17" t="s">
         <v>25</v>
       </c>
-      <c r="G17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1399,11 +1406,11 @@
       <c r="F18" t="s">
         <v>26</v>
       </c>
-      <c r="G18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1422,11 +1429,11 @@
       <c r="F19" t="s">
         <v>27</v>
       </c>
-      <c r="G19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1445,11 +1452,11 @@
       <c r="F20" t="s">
         <v>28</v>
       </c>
-      <c r="G20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -1468,11 +1475,11 @@
       <c r="F21" t="s">
         <v>29</v>
       </c>
-      <c r="G21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -1491,11 +1498,11 @@
       <c r="F22" t="s">
         <v>30</v>
       </c>
-      <c r="G22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -1514,11 +1521,11 @@
       <c r="F23" t="s">
         <v>31</v>
       </c>
-      <c r="G23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -1537,11 +1544,11 @@
       <c r="F24" t="s">
         <v>32</v>
       </c>
-      <c r="G24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -1560,11 +1567,11 @@
       <c r="F25" t="s">
         <v>33</v>
       </c>
-      <c r="G25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -1583,11 +1590,11 @@
       <c r="F26" t="s">
         <v>34</v>
       </c>
-      <c r="G26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -1606,11 +1613,11 @@
       <c r="F27" t="s">
         <v>35</v>
       </c>
-      <c r="G27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -1629,11 +1636,11 @@
       <c r="F28" t="s">
         <v>36</v>
       </c>
-      <c r="G28" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -1652,11 +1659,11 @@
       <c r="F29" t="s">
         <v>37</v>
       </c>
-      <c r="G29" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -1675,11 +1682,11 @@
       <c r="F30" t="s">
         <v>38</v>
       </c>
-      <c r="G30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -1698,11 +1705,11 @@
       <c r="F31" t="s">
         <v>39</v>
       </c>
-      <c r="G31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -1721,11 +1728,11 @@
       <c r="F32" t="s">
         <v>40</v>
       </c>
-      <c r="G32" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -1744,11 +1751,11 @@
       <c r="F33" t="s">
         <v>41</v>
       </c>
-      <c r="G33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -1767,11 +1774,11 @@
       <c r="F34" t="s">
         <v>42</v>
       </c>
-      <c r="G34" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -1790,11 +1797,11 @@
       <c r="F35" t="s">
         <v>43</v>
       </c>
-      <c r="G35" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -1813,11 +1820,11 @@
       <c r="F36" t="s">
         <v>44</v>
       </c>
-      <c r="G36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -1836,11 +1843,11 @@
       <c r="F37" t="s">
         <v>45</v>
       </c>
-      <c r="G37" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -1859,11 +1866,11 @@
       <c r="F38" t="s">
         <v>46</v>
       </c>
-      <c r="G38" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -1882,7 +1889,7 @@
       <c r="F39" t="s">
         <v>47</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>9</v>
       </c>
     </row>
